--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1089257.171833275</v>
+        <v>-1044815.388068092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10044229.6895623</v>
+        <v>10042443.49837864</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>292.564977434844</v>
       </c>
       <c r="G2" t="n">
-        <v>385.1775686243522</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51.46229541445283</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.053535534575891</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>214.9809889656215</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559665</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>290.697463157002</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>126.3821834304628</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>189.087322415781</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>72.30999466444861</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>36.56453789817022</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>17.17190536991682</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.0529453257936</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>58.52628678962095</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791322598</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766995</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317997</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>155.2022955251516</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884118</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>123.29013230387</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225716</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,13 +3196,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
         <v>71.53763939432403</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742933932</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856828</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277815</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4138,7 +4138,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542.9615250231907</v>
+        <v>1674.109213087351</v>
       </c>
       <c r="C2" t="n">
-        <v>508.859456247018</v>
+        <v>1640.007144311178</v>
       </c>
       <c r="D2" t="n">
-        <v>476.9900754618666</v>
+        <v>1211.425470048447</v>
       </c>
       <c r="E2" t="n">
-        <v>447.2557346605658</v>
+        <v>782.843795785715</v>
       </c>
       <c r="F2" t="n">
-        <v>423.4287091101776</v>
+        <v>487.3236165585998</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>85.92578518186372</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>973.506815168041</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="Y2" t="n">
-        <v>565.2206914676945</v>
+        <v>1696.368379531855</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.5367714259833</v>
+        <v>365.412936374258</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>766.5367714259833</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>766.5367714259833</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.5367714259833</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>2078.634717968137</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>1640.49224515156</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>1204.582460326004</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8077154842993</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9402858935069</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9402858935069</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.8101313367232</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.271640678701</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481509</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440103</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.444795510177</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.444795510177</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2409.629744961614</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2394.527685581329</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2100.89388441264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551559</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1086257917983</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383515</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653052</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5140838814668</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.12899414765073</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.4570151243208</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556983</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>781.5325614408401</v>
+        <v>741.0835044133446</v>
       </c>
       <c r="C7" t="n">
-        <v>608.9708499240651</v>
+        <v>613.424733271463</v>
       </c>
       <c r="D7" t="n">
-        <v>608.9708499240651</v>
+        <v>447.5467404729857</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>447.5467404729857</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>447.5467404729857</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9554654988133</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0532911891879</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.5871734550505</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.3456280261861</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.5555097941472</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.03937697506</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.298180132705</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2153.967429358486</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.474323328828</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.249276898532</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.007908196529</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.128461774984</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1964.695461028089</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1677.73995289852</v>
       </c>
       <c r="W7" t="n">
-        <v>973.3511801598272</v>
+        <v>1405.713548484811</v>
       </c>
       <c r="X7" t="n">
-        <v>973.3511801598272</v>
+        <v>1160.321793818224</v>
       </c>
       <c r="Y7" t="n">
-        <v>973.3511801598272</v>
+        <v>932.9021231323318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.767006022279</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1223.624533205703</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.755152420551</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>757.9804075788467</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>734.1533820284585</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>332.7555506517224</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>43.62539609493871</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>392.5229099692791</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>392.5229099692791</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>932.3871866441456</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>932.3871866441456</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>932.3871866441456</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>932.3871866441456</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1472.251463319012</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2012.115739993879</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746936</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2181.269804746936</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2181.269804746936</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.269804746936</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2108.229406095978</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.414355547415</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.31229616713</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.066576507187</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862315</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.3406799228738</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.2503910694271</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963808</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125424</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.36104827872624</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.68906925539632</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216087</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>934.1116708964753</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573748</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.409720022131</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352732</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.894529352701</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478939</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867739</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659946</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>640.4616671311568</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>640.4616671311568</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>474.5836743326795</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>474.5836743326795</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>297.8766202944357</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>132.2853453202634</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>132.2853453202634</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>130.2050812596286</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>404.9635358307642</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>404.9635358307642</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>803.6420835288355</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1245.90088668648</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1665.570135912262</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2013.077029882603</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746936</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2159.851983452308</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2159.851983452308</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2142.506624492796</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1864.073623745901</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1577.118115616332</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1305.091711202623</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.699956536036</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>832.2802858501439</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1366.101148454771</v>
+        <v>2294.193217903701</v>
       </c>
       <c r="C11" t="n">
-        <v>1366.101148454771</v>
+        <v>1856.050745087124</v>
       </c>
       <c r="D11" t="n">
-        <v>930.1913636292152</v>
+        <v>1420.140960261569</v>
       </c>
       <c r="E11" t="n">
-        <v>496.4166187875103</v>
+        <v>986.3662154198637</v>
       </c>
       <c r="F11" t="n">
-        <v>68.54918919671809</v>
+        <v>558.4987858290715</v>
       </c>
       <c r="G11" t="n">
-        <v>68.54918919671809</v>
+        <v>157.1009544523354</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671809</v>
+        <v>97.98349304867784</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385726</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J11" t="n">
-        <v>503.3870872767752</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>1337.737379234953</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L11" t="n">
-        <v>1862.657265647815</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M11" t="n">
-        <v>1862.657265647815</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N11" t="n">
-        <v>1862.657265647815</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O11" t="n">
-        <v>1862.657265647815</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P11" t="n">
-        <v>2690.967140481211</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q11" t="n">
-        <v>3237.465926439806</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192863</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.9681173767</v>
+        <v>4794.683309974729</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249738</v>
+        <v>4574.616082847768</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.678587566756</v>
+        <v>4315.393780164784</v>
       </c>
       <c r="V11" t="n">
-        <v>2481.061637500582</v>
+        <v>3952.776830098611</v>
       </c>
       <c r="W11" t="n">
-        <v>2076.206182911616</v>
+        <v>3547.921375509644</v>
       </c>
       <c r="X11" t="n">
-        <v>1657.063719490926</v>
+        <v>3128.778912088955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1657.063719490926</v>
+        <v>2720.492788388608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.30414481515</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517924</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983456</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252993</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414609</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076448</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385726</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431487</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J12" t="n">
-        <v>418.7543979505272</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.487918020905</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.487918020905</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>1099.487918020905</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>1099.487918020905</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>1099.487918020905</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.487918020905</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768125</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156924</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949132</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.6284369007889</v>
+        <v>948.0627407527491</v>
       </c>
       <c r="C13" t="n">
-        <v>746.0667253840135</v>
+        <v>775.501029235974</v>
       </c>
       <c r="D13" t="n">
-        <v>580.1887325855362</v>
+        <v>609.6230364374967</v>
       </c>
       <c r="E13" t="n">
-        <v>410.4307288362734</v>
+        <v>439.865032688234</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7236747980296</v>
+        <v>263.1579786499902</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13239982385726</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385726</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385726</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.7120849885471</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596827</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="S13" t="n">
-        <v>2666.552840683973</v>
+        <v>2554.984944876614</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.673394262428</v>
+        <v>2309.105498455069</v>
       </c>
       <c r="U13" t="n">
-        <v>2142.240393515533</v>
+        <v>2171.674697367494</v>
       </c>
       <c r="V13" t="n">
-        <v>1855.284885385964</v>
+        <v>1884.719189237924</v>
       </c>
       <c r="W13" t="n">
-        <v>1583.258480972255</v>
+        <v>1612.692784824216</v>
       </c>
       <c r="X13" t="n">
-        <v>1337.866726305668</v>
+        <v>1367.301030157628</v>
       </c>
       <c r="Y13" t="n">
-        <v>1110.447055619776</v>
+        <v>1139.881359471736</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5306,22 +5306,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2562.150454693628</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2316.271008272083</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2316.271008272083</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.315500142514</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728805</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062218</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376326</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,7 +5522,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5686,25 +5686,25 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V19" t="n">
         <v>1889.413325832886</v>
@@ -5750,28 +5750,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>3137.402081918264</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O20" t="n">
-        <v>4117.581748488571</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P20" t="n">
-        <v>4945.891623321967</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6151,19 +6151,19 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6877,7 +6877,7 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174707</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -7075,10 +7075,10 @@
         <v>910.3590448886291</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F37" t="n">
         <v>447.2151165412737</v>
@@ -7129,13 +7129,13 @@
         <v>2208.134468542892</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7160,7 +7160,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835853</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7178,22 +7178,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2177.324623035295</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7202,22 +7202,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7312,16 +7312,16 @@
         <v>905.6649082936669</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716792</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463115</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
@@ -7394,10 +7394,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,34 +7409,34 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7454,7 +7454,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7555,10 +7555,10 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,7 +7603,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,19 +7676,19 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7783,13 +7783,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.5209799463119</v>
@@ -7804,31 +7804,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758679</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482899</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.3343479384985</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.06447625372456</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>352.4217311862024</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>545.3174511867339</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>545.3174511867339</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867339</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867339</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8852847556223</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867339</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>402.7056037354256</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>530.2221074877395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.8387779969844</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10826,16 +10826,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>521.585752062364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>521.585752062364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>234.7765575967631</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>186.8468969972213</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133.9836294542652</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>227.712566221595</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>139.5921776627262</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.546820464652765e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.446659489831688</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>160.7958207444038</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142763</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.103384299014579e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.103384299014579e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876232.1516107072</v>
+        <v>694380.1465599136</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>876232.1516107072</v>
+        <v>883712.0244785973</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>879955.5092960967</v>
+        <v>883715.0528453076</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662350.8396196358</v>
+        <v>852900.2354843819</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883288.7541588936</v>
+        <v>883288.7541588941</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>883288.7541588938</v>
+        <v>883288.7541588939</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>883288.7541588935</v>
+        <v>883288.7541588938</v>
       </c>
     </row>
     <row r="9">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80422.09798356124</v>
+        <v>63373.47251004941</v>
       </c>
       <c r="C2" t="n">
-        <v>80422.09798356127</v>
+        <v>80422.09798356125</v>
       </c>
       <c r="D2" t="n">
-        <v>80422.09798356127</v>
+        <v>80422.09798356125</v>
       </c>
       <c r="E2" t="n">
-        <v>59261.12410640519</v>
+        <v>76309.74957991698</v>
       </c>
       <c r="F2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060284</v>
       </c>
       <c r="G2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060284</v>
       </c>
       <c r="H2" t="n">
         <v>79028.63762060281</v>
       </c>
       <c r="I2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="J2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="K2" t="n">
         <v>79028.63762060282</v>
@@ -26347,13 +26347,13 @@
         <v>80422.09798356135</v>
       </c>
       <c r="N2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356137</v>
       </c>
       <c r="O2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.0979835613</v>
       </c>
       <c r="P2" t="n">
-        <v>80422.0979835613</v>
+        <v>80422.09798356138</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.24144524505</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066516</v>
+        <v>30.57595066326716</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.651992163</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.569093686</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.5441737101</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.04443367886</v>
+        <v>13013.48053938575</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576771</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.69674436438</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>122692.5723626562</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139403.246238459</v>
       </c>
       <c r="D4" t="n">
-        <v>163590.6366304549</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>30836.82613433999</v>
+        <v>39708.16476457266</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,13 +26448,13 @@
         <v>46465.30974654599</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654598</v>
+        <v>46465.30974654599</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640299</v>
+        <v>55396.20108640302</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.201086403</v>
+        <v>55396.20108640302</v>
       </c>
       <c r="P4" t="n">
         <v>55396.20108640302</v>
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253604</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.90103215343</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613151</v>
+        <v>74150.69479362156</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308758.5238691843</v>
+        <v>-261219.3324074309</v>
       </c>
       <c r="C6" t="n">
-        <v>-166567.2232094743</v>
+        <v>-211732.9295926788</v>
       </c>
       <c r="D6" t="n">
-        <v>-187544.3773197123</v>
+        <v>-133204.7497677642</v>
       </c>
       <c r="E6" t="n">
-        <v>-114821.9778862293</v>
+        <v>-202453.1843862565</v>
       </c>
       <c r="F6" t="n">
-        <v>-162046.1220087884</v>
+        <v>-56648.17952958529</v>
       </c>
       <c r="G6" t="n">
-        <v>-39812.55291510237</v>
+        <v>-39835.77725448504</v>
       </c>
       <c r="H6" t="n">
-        <v>-39812.55291510237</v>
+        <v>-39835.77725448507</v>
       </c>
       <c r="I6" t="n">
-        <v>-39812.55291510242</v>
+        <v>-39835.77725448505</v>
       </c>
       <c r="J6" t="n">
-        <v>-150827.0182600926</v>
+        <v>-150850.2425994752</v>
       </c>
       <c r="K6" t="n">
-        <v>-39812.55291510241</v>
+        <v>-102407.3214281951</v>
       </c>
       <c r="L6" t="n">
-        <v>-88744.41473492415</v>
+        <v>-58139.85084063106</v>
       </c>
       <c r="M6" t="n">
-        <v>-121466.912267013</v>
+        <v>-182704.0710390973</v>
       </c>
       <c r="N6" t="n">
-        <v>-140605.4145732958</v>
+        <v>-50489.71782893136</v>
       </c>
       <c r="O6" t="n">
-        <v>-50489.71782893146</v>
+        <v>-50489.71782893143</v>
       </c>
       <c r="P6" t="n">
-        <v>-50489.71782893144</v>
+        <v>-50489.71782893135</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874738</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3174511867339</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982157</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281857</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666296</v>
+        <v>0.09843205956690326</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114818</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865296</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281857</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666296</v>
+        <v>0.09843205956690326</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114818</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287981495073</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281857</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666296</v>
+        <v>0.09843205956690326</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114818</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865296</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>131.0237778600404</v>
       </c>
       <c r="G2" t="n">
-        <v>12.20628443861654</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>54.32515140394989</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732121</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>113.5057993063411</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>44.45391097114451</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>80.21881795379039</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>286.6807859010631</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>226.2487465874125</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="K46" t="n">
         <v>16.23571033874738</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482899</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.3343479384985</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.06447625372456</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>352.4217311862024</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>545.3174511867339</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>545.3174511867339</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867339</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867339</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8852847556223</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867339</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,10 +35334,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>402.7056037354256</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,7 +35413,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>530.2221074877395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.8387779969844</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512943</v>
@@ -36534,7 +36534,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37242,7 +37242,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
         <v>186.127402120901</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37546,25 +37546,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>521.585752062364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>521.585752062364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778284</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38181,13 +38181,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
